--- a/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB10202-B637-491F-A7EF-D09790B44CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4925A45A-95A7-4B9A-A103-633F120ECE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1650D72D-9C5E-4164-8256-568F243CFB91}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB74A10A-360F-4A75-A835-8336C7393737}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="348">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -74,1027 +74,1009 @@
     <t>60,62%</t>
   </si>
   <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>11,66%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1509,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A6744F-CCC8-4D1A-870F-C6A3FDFBE1C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C38C57-9DC8-47DC-9AFB-0B1249DE62F3}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2328,13 +2310,13 @@
         <v>788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2331,13 @@
         <v>2477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2364,13 +2346,13 @@
         <v>2374</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2379,13 +2361,13 @@
         <v>4851</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2423,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2453,13 +2435,13 @@
         <v>3935</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2468,13 +2450,13 @@
         <v>19151</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -2483,13 +2465,13 @@
         <v>23086</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2501,13 @@
         <v>1768</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2534,13 +2516,13 @@
         <v>1768</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2639,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2672,13 +2654,13 @@
         <v>1271</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2687,13 +2669,13 @@
         <v>2922</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2741,13 @@
         <v>4805</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2774,13 +2756,13 @@
         <v>7354</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -2789,13 +2771,13 @@
         <v>12159</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,7 +2833,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2863,13 +2845,13 @@
         <v>10325</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H28" s="7">
         <v>32</v>
@@ -2878,28 +2860,28 @@
         <v>33313</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>38</v>
       </c>
       <c r="N28" s="7">
-        <v>43638</v>
+        <v>43639</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,28 +2896,28 @@
         <v>3060</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2944,13 +2926,13 @@
         <v>3060</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2986,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -3001,7 +2983,7 @@
         <v>22</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,7 +3004,7 @@
         <v>22</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -3031,13 +3013,13 @@
         <v>801</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -3046,13 +3028,13 @@
         <v>801</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3055,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3082,13 +3064,13 @@
         <v>1828</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -3097,13 +3079,13 @@
         <v>1828</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3100,13 @@
         <v>2268</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3133,13 +3115,13 @@
         <v>1497</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3148,13 +3130,13 @@
         <v>3765</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -3184,13 +3166,13 @@
         <v>5531</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3199,13 +3181,13 @@
         <v>5531</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3229,7 @@
         <v>50</v>
       </c>
       <c r="N35" s="7">
-        <v>58622</v>
+        <v>58623</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>52</v>
@@ -3261,7 +3243,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3273,7 +3255,7 @@
         <v>160</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>21</v>
@@ -3288,13 +3270,13 @@
         <v>4662</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -3303,13 +3285,13 @@
         <v>4821</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3345,7 +3327,7 @@
         <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3360,7 +3342,7 @@
         <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,7 +3363,7 @@
         <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3396,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3411,7 +3393,7 @@
         <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3414,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3447,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3462,7 +3444,7 @@
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,7 +3459,7 @@
         <v>562</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>21</v>
@@ -3492,13 +3474,13 @@
         <v>2079</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3507,13 +3489,13 @@
         <v>2641</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3516,7 @@
         <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3543,13 +3525,13 @@
         <v>455</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -3558,13 +3540,13 @@
         <v>455</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3567,7 @@
         <v>22</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -3594,13 +3576,13 @@
         <v>478</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -3609,13 +3591,13 @@
         <v>478</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,7 +3653,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3683,13 +3665,13 @@
         <v>6761</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -3698,13 +3680,13 @@
         <v>11447</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M44" s="7">
         <v>21</v>
@@ -3713,13 +3695,13 @@
         <v>18209</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3722,7 @@
         <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3749,13 +3731,13 @@
         <v>558</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
@@ -3764,13 +3746,13 @@
         <v>558</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3773,7 @@
         <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3806,7 +3788,7 @@
         <v>22</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3821,7 +3803,7 @@
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3824,7 @@
         <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3857,7 +3839,7 @@
         <v>21</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M47" s="7">
         <v>1</v>
@@ -3872,7 +3854,7 @@
         <v>21</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3869,13 @@
         <v>6982</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -3902,13 +3884,13 @@
         <v>2368</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M48" s="7">
         <v>10</v>
@@ -3917,13 +3899,13 @@
         <v>9350</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3926,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -3959,7 +3941,7 @@
         <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -3974,7 +3956,7 @@
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3971,13 @@
         <v>913</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H50" s="7">
         <v>10</v>
@@ -4004,13 +3986,13 @@
         <v>9025</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -4019,13 +4001,13 @@
         <v>9938</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,7 +4063,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4093,13 +4075,13 @@
         <v>16735</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H52" s="7">
         <v>49</v>
@@ -4108,13 +4090,13 @@
         <v>39808</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M52" s="7">
         <v>63</v>
@@ -4123,13 +4105,13 @@
         <v>56543</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4126,13 @@
         <v>3258</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -4159,13 +4141,13 @@
         <v>2672</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -4174,13 +4156,13 @@
         <v>5929</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4183,7 @@
         <v>22</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -4216,7 +4198,7 @@
         <v>22</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -4231,7 +4213,7 @@
         <v>22</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4261,13 +4243,13 @@
         <v>943</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4276,13 +4258,13 @@
         <v>943</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4279,13 @@
         <v>798</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -4312,13 +4294,13 @@
         <v>702</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M56" s="7">
         <v>2</v>
@@ -4327,13 +4309,13 @@
         <v>1500</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4336,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H57" s="7">
         <v>7</v>
@@ -4363,13 +4345,13 @@
         <v>4910</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M57" s="7">
         <v>7</v>
@@ -4378,13 +4360,13 @@
         <v>4910</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4381,13 @@
         <v>319</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H58" s="7">
         <v>10</v>
@@ -4414,13 +4396,13 @@
         <v>7779</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M58" s="7">
         <v>12</v>
@@ -4429,13 +4411,13 @@
         <v>8098</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4473,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4503,13 +4485,13 @@
         <v>20078</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H60" s="7">
         <v>56</v>
@@ -4518,13 +4500,13 @@
         <v>47994</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M60" s="7">
         <v>66</v>
@@ -4533,13 +4515,13 @@
         <v>68072</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4536,13 @@
         <v>1942</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H61" s="7">
         <v>8</v>
@@ -4569,13 +4551,13 @@
         <v>6430</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M61" s="7">
         <v>9</v>
@@ -4584,13 +4566,13 @@
         <v>8373</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4587,13 @@
         <v>1311</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4626,7 +4608,7 @@
         <v>22</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M62" s="7">
         <v>1</v>
@@ -4635,13 +4617,13 @@
         <v>1312</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4644,7 @@
         <v>22</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -4671,13 +4653,13 @@
         <v>785</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -4686,13 +4668,13 @@
         <v>785</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>280</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4689,13 @@
         <v>1855</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H64" s="7">
         <v>5</v>
@@ -4722,13 +4704,13 @@
         <v>4831</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M64" s="7">
         <v>6</v>
@@ -4737,13 +4719,13 @@
         <v>6686</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>283</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4740,13 @@
         <v>3216</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -4773,13 +4755,13 @@
         <v>822</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -4788,13 +4770,13 @@
         <v>4038</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,7 +4797,7 @@
         <v>22</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H66" s="7">
         <v>15</v>
@@ -4824,13 +4806,13 @@
         <v>14374</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M66" s="7">
         <v>15</v>
@@ -4839,13 +4821,13 @@
         <v>14374</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4895,13 @@
         <v>86105</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H68" s="7">
         <v>238</v>
@@ -4928,13 +4910,13 @@
         <v>195204</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M68" s="7">
         <v>290</v>
@@ -4943,13 +4925,13 @@
         <v>281309</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4946,13 @@
         <v>8260</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H69" s="7">
         <v>15</v>
@@ -4979,13 +4961,13 @@
         <v>12371</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M69" s="7">
         <v>21</v>
@@ -4994,13 +4976,13 @@
         <v>20630</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +4997,13 @@
         <v>1312</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5036,7 +5018,7 @@
         <v>22</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -5045,13 +5027,13 @@
         <v>1312</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,7 +5054,7 @@
         <v>22</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H71" s="7">
         <v>5</v>
@@ -5081,13 +5063,13 @@
         <v>3196</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M71" s="7">
         <v>5</v>
@@ -5096,13 +5078,13 @@
         <v>3196</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5099,13 @@
         <v>12008</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H72" s="7">
         <v>20</v>
@@ -5132,13 +5114,13 @@
         <v>16656</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M72" s="7">
         <v>31</v>
@@ -5147,13 +5129,13 @@
         <v>28664</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>225</v>
+        <v>329</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5150,13 @@
         <v>5483</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H73" s="7">
         <v>13</v>
@@ -5183,13 +5165,13 @@
         <v>8973</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M73" s="7">
         <v>17</v>
@@ -5198,13 +5180,13 @@
         <v>14456</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,13 +5201,13 @@
         <v>13771</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H74" s="7">
         <v>59</v>
@@ -5234,13 +5216,13 @@
         <v>50472</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="M74" s="7">
         <v>70</v>
@@ -5249,13 +5231,13 @@
         <v>64243</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>352</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,7 +5293,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4925A45A-95A7-4B9A-A103-633F120ECE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDCCE4F-779C-4855-9605-D5A5A3EEBF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB74A10A-360F-4A75-A835-8336C7393737}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C4C8F0C-A989-45B2-A61A-B44631B96881}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C38C57-9DC8-47DC-9AFB-0B1249DE62F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B51C7F-E9E2-4CF7-ABB4-681ABA6C27B8}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDCCE4F-779C-4855-9605-D5A5A3EEBF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B911743-B0ED-45CE-BF82-311E5B41F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C4C8F0C-A989-45B2-A61A-B44631B96881}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D76121CE-249B-4655-966B-5D652F90152E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="348">
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 4,98%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="446">
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,1012 +71,1306 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>18,74%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1491,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B51C7F-E9E2-4CF7-ABB4-681ABA6C27B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7200AE5-9ADD-4502-8A60-3F26CE418002}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,10 +1903,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="D4" s="7">
-        <v>8337</v>
+        <v>184201</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1624,10 +1918,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="I4" s="7">
-        <v>12609</v>
+        <v>200841</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1639,10 +1933,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>639</v>
       </c>
       <c r="N4" s="7">
-        <v>20946</v>
+        <v>385041</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1660,10 +1954,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5608</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1675,55 +1969,55 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>6127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1732,49 +2026,49 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1783,100 +2077,100 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>160</v>
+        <v>10991</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>1401</v>
+        <v>4395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>1561</v>
+        <v>15386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1885,79 +2179,79 @@
         <v>501</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>501</v>
+        <v>1378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>5256</v>
+        <v>41147</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>3558</v>
+        <v>25143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>8814</v>
+        <v>66290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,102 +2260,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>13753</v>
+        <v>244318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>18069</v>
+        <v>231398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>781</v>
       </c>
       <c r="N11" s="7">
-        <v>31822</v>
+        <v>475715</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>19773</v>
+        <v>408840</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>448</v>
       </c>
       <c r="I12" s="7">
-        <v>26221</v>
+        <v>353899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
-        <v>34</v>
+        <v>754</v>
       </c>
       <c r="N12" s="7">
-        <v>45994</v>
+        <v>762739</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,55 +2364,55 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>18601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2691</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="7">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>943</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
       <c r="N13" s="7">
-        <v>943</v>
+        <v>21292</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2127,49 +2421,49 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -2178,115 +2472,115 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>7120</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2176</v>
+        <v>3058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>2176</v>
+        <v>10178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>5972</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2295,79 +2589,79 @@
         <v>788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>788</v>
+        <v>6760</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>2477</v>
+        <v>29303</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>2374</v>
+        <v>19939</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>4851</v>
+        <v>49242</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,102 +2670,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D19" s="7">
-        <v>22250</v>
+        <v>469836</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>488</v>
       </c>
       <c r="I19" s="7">
-        <v>32502</v>
+        <v>381157</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M19" s="7">
-        <v>43</v>
+        <v>853</v>
       </c>
       <c r="N19" s="7">
-        <v>54752</v>
+        <v>850994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="D20" s="7">
-        <v>3935</v>
+        <v>220844</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="I20" s="7">
-        <v>19151</v>
+        <v>254346</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
-        <v>25</v>
+        <v>634</v>
       </c>
       <c r="N20" s="7">
-        <v>23086</v>
+        <v>475189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,223 +2774,223 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>15768</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>1768</v>
+        <v>5170</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="N21" s="7">
-        <v>1768</v>
+        <v>20939</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>2680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1946</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>2598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>1651</v>
+        <v>11046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>1271</v>
+        <v>6891</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>2922</v>
+        <v>17937</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2705,79 +2999,79 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7">
-        <v>4805</v>
+        <v>35998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>7354</v>
+        <v>31288</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="N26" s="7">
-        <v>12159</v>
+        <v>67286</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,102 +3080,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D27" s="7">
-        <v>10391</v>
+        <v>289407</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H27" s="7">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="I27" s="7">
-        <v>29543</v>
+        <v>298842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="N27" s="7">
-        <v>39934</v>
+        <v>588249</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="D28" s="7">
-        <v>10325</v>
+        <v>201695</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="I28" s="7">
-        <v>33313</v>
+        <v>241961</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
-        <v>38</v>
+        <v>507</v>
       </c>
       <c r="N28" s="7">
-        <v>43639</v>
+        <v>443656</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,304 +3184,304 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7">
-        <v>3060</v>
+        <v>24775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>10518</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>3060</v>
+        <v>35293</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>2474</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="M30" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>9156</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>801</v>
+        <v>2190</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N31" s="7">
-        <v>801</v>
+        <v>11346</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>2662</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>1828</v>
+        <v>18658</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>1828</v>
+        <v>21320</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>2268</v>
+        <v>5973</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="H33" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>1497</v>
+        <v>4720</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="M33" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N33" s="7">
-        <v>3765</v>
+        <v>10693</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>54096</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="I34" s="7">
-        <v>5531</v>
+        <v>44232</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="N34" s="7">
-        <v>5531</v>
+        <v>98328</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,102 +3490,102 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="D35" s="7">
-        <v>15652</v>
+        <v>300830</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H35" s="7">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="I35" s="7">
-        <v>42970</v>
+        <v>322711</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M35" s="7">
-        <v>50</v>
+        <v>712</v>
       </c>
       <c r="N35" s="7">
-        <v>58623</v>
+        <v>623540</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D36" s="7">
-        <v>160</v>
+        <v>134927</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="I36" s="7">
-        <v>4662</v>
+        <v>147820</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="M36" s="7">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="N36" s="7">
-        <v>4821</v>
+        <v>282747</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,70 +3594,70 @@
         <v>20</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>8720</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>3099</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>0</v>
+        <v>11819</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3372,34 +3666,34 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C39" s="7">
         <v>0</v>
@@ -3408,115 +3702,115 @@
         <v>0</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="M39" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="7">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C40" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D40" s="7">
-        <v>562</v>
+        <v>9070</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I40" s="7">
-        <v>2079</v>
+        <v>8319</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="M40" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="N40" s="7">
-        <v>2641</v>
+        <v>17389</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>1465</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3525,79 +3819,79 @@
         <v>455</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>455</v>
+        <v>1920</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>15564</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>21</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I42" s="7">
-        <v>478</v>
+        <v>8911</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>174</v>
+        <v>259</v>
       </c>
       <c r="M42" s="7">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N42" s="7">
-        <v>478</v>
+        <v>24475</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>21</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,102 +3900,102 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="D43" s="7">
-        <v>722</v>
+        <v>170494</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H43" s="7">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="I43" s="7">
-        <v>7673</v>
+        <v>169846</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M43" s="7">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="N43" s="7">
-        <v>8395</v>
+        <v>340339</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="D44" s="7">
-        <v>6761</v>
+        <v>177710</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="I44" s="7">
-        <v>11447</v>
+        <v>177561</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="M44" s="7">
-        <v>21</v>
+        <v>548</v>
       </c>
       <c r="N44" s="7">
-        <v>18209</v>
+        <v>355271</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,55 +4004,55 @@
         <v>20</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>7096</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="H45" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45" s="7">
-        <v>558</v>
+        <v>1900</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="M45" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N45" s="7">
-        <v>558</v>
+        <v>8996</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7">
         <v>0</v>
@@ -3767,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3782,13 +4076,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3797,34 +4091,34 @@
         <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>1597</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
@@ -3833,181 +4127,181 @@
         <v>666</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>666</v>
+        <v>2263</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>66</v>
+        <v>285</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C48" s="7">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>6982</v>
+        <v>33449</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I48" s="7">
-        <v>2368</v>
+        <v>9118</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="M48" s="7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="N48" s="7">
-        <v>9350</v>
+        <v>42567</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>1696</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>162</v>
+        <v>50</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>21</v>
+        <v>295</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>137</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D50" s="7">
-        <v>913</v>
+        <v>37408</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="H50" s="7">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I50" s="7">
-        <v>9025</v>
+        <v>25803</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="M50" s="7">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="N50" s="7">
-        <v>9938</v>
+        <v>63211</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,102 +4310,102 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
-        <v>13</v>
+        <v>357</v>
       </c>
       <c r="D51" s="7">
-        <v>14656</v>
+        <v>258955</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H51" s="7">
-        <v>31</v>
+        <v>373</v>
       </c>
       <c r="I51" s="7">
-        <v>24063</v>
+        <v>215370</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7">
-        <v>44</v>
+        <v>730</v>
       </c>
       <c r="N51" s="7">
-        <v>38720</v>
+        <v>474325</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="7">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="D52" s="7">
-        <v>16735</v>
+        <v>400297</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="H52" s="7">
-        <v>49</v>
+        <v>620</v>
       </c>
       <c r="I52" s="7">
-        <v>39808</v>
+        <v>539858</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="M52" s="7">
-        <v>63</v>
+        <v>1011</v>
       </c>
       <c r="N52" s="7">
-        <v>56543</v>
+        <v>940156</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,304 +4414,304 @@
         <v>20</v>
       </c>
       <c r="C53" s="7">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D53" s="7">
-        <v>3258</v>
+        <v>57789</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>220</v>
+        <v>314</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>221</v>
+        <v>315</v>
       </c>
       <c r="H53" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I53" s="7">
-        <v>2672</v>
+        <v>27373</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="M53" s="7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="N53" s="7">
-        <v>5929</v>
+        <v>85161</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>226</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>7155</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I54" s="7">
-        <v>0</v>
+        <v>4037</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>22</v>
+        <v>322</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="M54" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N54" s="7">
-        <v>0</v>
+        <v>11193</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>21</v>
+        <v>323</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>229</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="7">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7">
+        <v>11544</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H55" s="7">
+        <v>13</v>
+      </c>
+      <c r="I55" s="7">
+        <v>8878</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="M55" s="7">
         <v>27</v>
       </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H55" s="7">
-        <v>2</v>
-      </c>
-      <c r="I55" s="7">
-        <v>943</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M55" s="7">
-        <v>2</v>
-      </c>
       <c r="N55" s="7">
-        <v>943</v>
+        <v>20421</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>233</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C56" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D56" s="7">
-        <v>798</v>
+        <v>19786</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>21</v>
+        <v>282</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="H56" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I56" s="7">
-        <v>702</v>
+        <v>16371</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="M56" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N56" s="7">
-        <v>1500</v>
+        <v>36156</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>239</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C57" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D57" s="7">
-        <v>0</v>
+        <v>10507</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>21</v>
+        <v>336</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="H57" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I57" s="7">
-        <v>4910</v>
+        <v>7076</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="M57" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N57" s="7">
-        <v>4910</v>
+        <v>17583</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C58" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D58" s="7">
-        <v>319</v>
+        <v>57133</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>246</v>
+        <v>342</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>21</v>
+        <v>343</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="H58" s="7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="I58" s="7">
-        <v>7779</v>
+        <v>58618</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>249</v>
+        <v>346</v>
       </c>
       <c r="M58" s="7">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="N58" s="7">
-        <v>8098</v>
+        <v>115751</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,102 +4720,102 @@
         <v>3</v>
       </c>
       <c r="C59" s="7">
-        <v>20</v>
+        <v>568</v>
       </c>
       <c r="D59" s="7">
-        <v>21110</v>
+        <v>564210</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H59" s="7">
-        <v>72</v>
+        <v>809</v>
       </c>
       <c r="I59" s="7">
-        <v>56814</v>
+        <v>662210</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M59" s="7">
-        <v>92</v>
+        <v>1377</v>
       </c>
       <c r="N59" s="7">
-        <v>77924</v>
+        <v>1226421</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>253</v>
+        <v>350</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="7">
-        <v>10</v>
+        <v>421</v>
       </c>
       <c r="D60" s="7">
-        <v>20078</v>
+        <v>429691</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>255</v>
+        <v>352</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>256</v>
+        <v>353</v>
       </c>
       <c r="H60" s="7">
-        <v>56</v>
+        <v>493</v>
       </c>
       <c r="I60" s="7">
-        <v>47994</v>
+        <v>396137</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>257</v>
+        <v>354</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>258</v>
+        <v>355</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>259</v>
+        <v>356</v>
       </c>
       <c r="M60" s="7">
-        <v>66</v>
+        <v>914</v>
       </c>
       <c r="N60" s="7">
-        <v>68072</v>
+        <v>825828</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,304 +4824,304 @@
         <v>20</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D61" s="7">
-        <v>1942</v>
+        <v>128204</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>263</v>
+        <v>360</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>21</v>
+        <v>361</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>264</v>
+        <v>362</v>
       </c>
       <c r="H61" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="I61" s="7">
-        <v>6430</v>
+        <v>57424</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>266</v>
+        <v>364</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>267</v>
+        <v>365</v>
       </c>
       <c r="M61" s="7">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="N61" s="7">
-        <v>8373</v>
+        <v>185628</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>269</v>
+        <v>367</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>207</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C62" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
-        <v>1311</v>
+        <v>3732</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="H62" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="7">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>272</v>
+        <v>137</v>
       </c>
       <c r="M62" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N62" s="7">
-        <v>1312</v>
+        <v>5158</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>273</v>
+        <v>370</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C63" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D63" s="7">
-        <v>0</v>
+        <v>58039</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>21</v>
+        <v>371</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>163</v>
+        <v>373</v>
       </c>
       <c r="H63" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I63" s="7">
-        <v>785</v>
+        <v>5766</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>21</v>
+        <v>375</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="M63" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N63" s="7">
-        <v>785</v>
+        <v>63804</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>277</v>
+        <v>377</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C64" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D64" s="7">
-        <v>1855</v>
+        <v>28477</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>21</v>
+        <v>380</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="H64" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I64" s="7">
-        <v>4831</v>
+        <v>15883</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>145</v>
+        <v>382</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="M64" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="N64" s="7">
-        <v>6686</v>
+        <v>44360</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C65" s="7">
+        <v>14</v>
+      </c>
+      <c r="D65" s="7">
+        <v>14966</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H65" s="7">
         <v>2</v>
       </c>
-      <c r="D65" s="7">
-        <v>3216</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H65" s="7">
-        <v>1</v>
-      </c>
       <c r="I65" s="7">
-        <v>822</v>
+        <v>1458</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="M65" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N65" s="7">
-        <v>4038</v>
+        <v>16424</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>289</v>
+        <v>100</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>291</v>
+        <v>389</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C66" s="7">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>123861</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>21</v>
+        <v>390</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>22</v>
+        <v>391</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>163</v>
+        <v>392</v>
       </c>
       <c r="H66" s="7">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="I66" s="7">
-        <v>14374</v>
+        <v>98733</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>285</v>
+        <v>394</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="M66" s="7">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="N66" s="7">
-        <v>14374</v>
+        <v>222595</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>295</v>
+        <v>397</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,49 +5130,49 @@
         <v>3</v>
       </c>
       <c r="C67" s="7">
-        <v>15</v>
+        <v>722</v>
       </c>
       <c r="D67" s="7">
-        <v>28403</v>
+        <v>786970</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H67" s="7">
-        <v>86</v>
+        <v>722</v>
       </c>
       <c r="I67" s="7">
-        <v>75237</v>
+        <v>576828</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M67" s="7">
-        <v>101</v>
+        <v>1444</v>
       </c>
       <c r="N67" s="7">
-        <v>103640</v>
+        <v>1363798</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,49 +5183,49 @@
         <v>10</v>
       </c>
       <c r="C68" s="7">
-        <v>52</v>
+        <v>2246</v>
       </c>
       <c r="D68" s="7">
-        <v>86105</v>
+        <v>2158205</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>297</v>
+        <v>399</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
       <c r="H68" s="7">
-        <v>238</v>
+        <v>3281</v>
       </c>
       <c r="I68" s="7">
-        <v>195204</v>
+        <v>2312421</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="M68" s="7">
-        <v>290</v>
+        <v>5527</v>
       </c>
       <c r="N68" s="7">
-        <v>281309</v>
+        <v>4470626</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>304</v>
+        <v>406</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,304 +5234,304 @@
         <v>20</v>
       </c>
       <c r="C69" s="7">
-        <v>6</v>
+        <v>279</v>
       </c>
       <c r="D69" s="7">
-        <v>8260</v>
+        <v>266561</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="H69" s="7">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="I69" s="7">
-        <v>12371</v>
+        <v>108695</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="M69" s="7">
-        <v>21</v>
+        <v>430</v>
       </c>
       <c r="N69" s="7">
-        <v>20630</v>
+        <v>375255</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>310</v>
+        <v>412</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>311</v>
+        <v>413</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>312</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C70" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D70" s="7">
-        <v>1312</v>
+        <v>16952</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="H70" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I70" s="7">
-        <v>0</v>
+        <v>6550</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="M70" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N70" s="7">
-        <v>1312</v>
+        <v>23501</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>230</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C71" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>83116</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>21</v>
+        <v>418</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>22</v>
+        <v>419</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>316</v>
+        <v>420</v>
       </c>
       <c r="H71" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I71" s="7">
-        <v>3196</v>
+        <v>20017</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>317</v>
+        <v>421</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="M71" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="N71" s="7">
-        <v>3196</v>
+        <v>103133</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>322</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C72" s="7">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D72" s="7">
-        <v>12008</v>
+        <v>122600</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>128</v>
+        <v>425</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="H72" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I72" s="7">
-        <v>16656</v>
+        <v>82692</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="M72" s="7">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="N72" s="7">
-        <v>28664</v>
+        <v>205292</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>330</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C73" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D73" s="7">
-        <v>5483</v>
+        <v>43077</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>332</v>
+        <v>47</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>333</v>
+        <v>433</v>
       </c>
       <c r="H73" s="7">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I73" s="7">
-        <v>8973</v>
+        <v>15319</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>334</v>
+        <v>28</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>336</v>
+        <v>434</v>
       </c>
       <c r="M73" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N73" s="7">
-        <v>14456</v>
+        <v>58396</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="5" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C74" s="7">
-        <v>11</v>
+        <v>441</v>
       </c>
       <c r="D74" s="7">
-        <v>13771</v>
+        <v>394510</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>341</v>
+        <v>437</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>342</v>
+        <v>438</v>
       </c>
       <c r="H74" s="7">
-        <v>59</v>
+        <v>489</v>
       </c>
       <c r="I74" s="7">
-        <v>50472</v>
+        <v>312668</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>242</v>
+        <v>439</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>344</v>
+        <v>441</v>
       </c>
       <c r="M74" s="7">
-        <v>70</v>
+        <v>930</v>
       </c>
       <c r="N74" s="7">
-        <v>64243</v>
+        <v>707178</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>346</v>
+        <v>443</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,54 +5540,54 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>85</v>
+        <v>3210</v>
       </c>
       <c r="D75" s="7">
-        <v>126939</v>
+        <v>3085020</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H75" s="7">
-        <v>350</v>
+        <v>4089</v>
       </c>
       <c r="I75" s="7">
-        <v>286871</v>
+        <v>2858361</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M75" s="7">
-        <v>435</v>
+        <v>7299</v>
       </c>
       <c r="N75" s="7">
-        <v>413810</v>
+        <v>5943381</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>347</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B911743-B0ED-45CE-BF82-311E5B41F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CC64D7-6ECB-4315-8253-E53D9B3E158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D76121CE-249B-4655-966B-5D652F90152E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{02FDE9EF-45E3-48F9-88C1-797520D0CE25}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="438">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba la persona sustentadora principal en 2023 (Tasa respuesta: 83,48%)</t>
   </si>
@@ -71,1306 +71,1282 @@
     <t>TRABAJADOR POR CUENTA AJENA Otro asalariado</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>TRABAJADOR POR CUENTA AJENA Capataz, supervisor o encargado</t>
   </si>
   <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
     <t>2,3%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>TRABAJADOR POR CUENTA AJENA Gerente de una empresa con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Con 10 o más asalariados</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>TRABAJADOR O EMPRESARIO POR CUENTA PROPIA Sin asalariados</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>7,86%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1785,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7200AE5-9ADD-4502-8A60-3F26CE418002}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD24BCE-6673-4FDC-BCA7-D5B69C12E5BA}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1906,7 +1882,7 @@
         <v>243</v>
       </c>
       <c r="D4" s="7">
-        <v>184201</v>
+        <v>217112</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1921,7 +1897,7 @@
         <v>396</v>
       </c>
       <c r="I4" s="7">
-        <v>200841</v>
+        <v>214513</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1936,7 +1912,7 @@
         <v>639</v>
       </c>
       <c r="N4" s="7">
-        <v>385041</v>
+        <v>431626</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1957,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>5608</v>
+        <v>6279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1972,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1987,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>6127</v>
+        <v>6828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2008,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2038,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -2059,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -2089,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2110,73 +2086,73 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>10991</v>
+        <v>12412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>4395</v>
+        <v>4565</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>15386</v>
+        <v>16977</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>878</v>
+        <v>1031</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>24</v>
@@ -2185,13 +2161,13 @@
         <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1378</v>
+        <v>1565</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>55</v>
@@ -2212,7 +2188,7 @@
         <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>41147</v>
+        <v>48726</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>58</v>
@@ -2227,7 +2203,7 @@
         <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>25143</v>
+        <v>26240</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>61</v>
@@ -2242,16 +2218,16 @@
         <v>104</v>
       </c>
       <c r="N10" s="7">
-        <v>66290</v>
+        <v>74965</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,51 +2239,51 @@
         <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>244318</v>
+        <v>287200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>231398</v>
+        <v>246400</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>781</v>
       </c>
       <c r="N11" s="7">
-        <v>475715</v>
+        <v>533600</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2316,46 +2292,46 @@
         <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>408840</v>
+        <v>403848</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>448</v>
       </c>
       <c r="I12" s="7">
-        <v>353899</v>
+        <v>330416</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>754</v>
       </c>
       <c r="N12" s="7">
-        <v>762739</v>
+        <v>734265</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,46 +2343,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>18601</v>
+        <v>17571</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2691</v>
+        <v>2505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>21292</v>
+        <v>20076</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,37 +2403,37 @@
         <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,37 +2454,37 @@
         <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,97 +2496,97 @@
         <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>7120</v>
+        <v>6904</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3058</v>
+        <v>2893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>10178</v>
+        <v>9797</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7">
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>5972</v>
+        <v>5682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>788</v>
+        <v>731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>6760</v>
+        <v>6412</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,46 +2598,46 @@
         <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>29303</v>
+        <v>28445</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
       </c>
       <c r="I18" s="7">
-        <v>19939</v>
+        <v>18647</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>49242</v>
+        <v>47092</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,51 +2649,51 @@
         <v>365</v>
       </c>
       <c r="D19" s="7">
-        <v>469836</v>
+        <v>462450</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
         <v>488</v>
       </c>
       <c r="I19" s="7">
-        <v>381157</v>
+        <v>355940</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
         <v>853</v>
       </c>
       <c r="N19" s="7">
-        <v>850994</v>
+        <v>818390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2726,46 +2702,46 @@
         <v>258</v>
       </c>
       <c r="D20" s="7">
-        <v>220844</v>
+        <v>215312</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>376</v>
       </c>
       <c r="I20" s="7">
-        <v>254346</v>
+        <v>238029</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>634</v>
       </c>
       <c r="N20" s="7">
-        <v>475189</v>
+        <v>453340</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,46 +2753,46 @@
         <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>15768</v>
+        <v>15143</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>5170</v>
+        <v>4829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
       </c>
       <c r="N21" s="7">
-        <v>20939</v>
+        <v>19972</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,46 +2804,46 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>2184</v>
+        <v>2105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>2680</v>
+        <v>2564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,46 +2855,46 @@
         <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>1946</v>
+        <v>1874</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>2598</v>
+        <v>2475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,67 +2906,67 @@
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>11046</v>
+        <v>10829</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>6891</v>
+        <v>6438</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>17937</v>
+        <v>17267</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1620</v>
+        <v>1555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3005,22 +2981,22 @@
         <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>1620</v>
+        <v>1555</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,46 +3008,46 @@
         <v>43</v>
       </c>
       <c r="D26" s="7">
-        <v>35998</v>
+        <v>34935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>31288</v>
+        <v>29315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
       </c>
       <c r="N26" s="7">
-        <v>67286</v>
+        <v>64250</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,51 +3059,51 @@
         <v>340</v>
       </c>
       <c r="D27" s="7">
-        <v>289407</v>
+        <v>281753</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
       </c>
       <c r="I27" s="7">
-        <v>298842</v>
+        <v>279671</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M27" s="7">
         <v>782</v>
       </c>
       <c r="N27" s="7">
-        <v>588249</v>
+        <v>561424</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3136,46 +3112,46 @@
         <v>189</v>
       </c>
       <c r="D28" s="7">
-        <v>201695</v>
+        <v>192704</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>318</v>
       </c>
       <c r="I28" s="7">
-        <v>241961</v>
+        <v>246754</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
       </c>
       <c r="N28" s="7">
-        <v>443656</v>
+        <v>439459</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,46 +3163,46 @@
         <v>19</v>
       </c>
       <c r="D29" s="7">
-        <v>24775</v>
+        <v>24398</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>10518</v>
+        <v>9730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>35293</v>
+        <v>34128</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,46 +3214,46 @@
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>2474</v>
+        <v>2405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
       </c>
       <c r="N30" s="7">
-        <v>2905</v>
+        <v>2810</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,46 +3265,46 @@
         <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>9156</v>
+        <v>8549</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>2190</v>
+        <v>1996</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
       </c>
       <c r="N31" s="7">
-        <v>11346</v>
+        <v>10545</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,97 +3316,97 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>2662</v>
+        <v>2986</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>18658</v>
+        <v>72854</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>21320</v>
+        <v>75840</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7">
         <v>7</v>
       </c>
       <c r="D33" s="7">
-        <v>5973</v>
+        <v>5876</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>4720</v>
+        <v>4395</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>14</v>
       </c>
       <c r="N33" s="7">
-        <v>10693</v>
+        <v>10271</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,46 +3418,46 @@
         <v>56</v>
       </c>
       <c r="D34" s="7">
-        <v>54096</v>
+        <v>52481</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
         <v>78</v>
       </c>
       <c r="I34" s="7">
-        <v>44232</v>
+        <v>41262</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>134</v>
       </c>
       <c r="N34" s="7">
-        <v>98328</v>
+        <v>93743</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,51 +3469,51 @@
         <v>283</v>
       </c>
       <c r="D35" s="7">
-        <v>300830</v>
+        <v>289401</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H35" s="7">
         <v>429</v>
       </c>
       <c r="I35" s="7">
-        <v>322711</v>
+        <v>377395</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="7">
         <v>712</v>
       </c>
       <c r="N35" s="7">
-        <v>623540</v>
+        <v>666797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3546,46 +3522,46 @@
         <v>198</v>
       </c>
       <c r="D36" s="7">
-        <v>134927</v>
+        <v>123025</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H36" s="7">
         <v>322</v>
       </c>
       <c r="I36" s="7">
-        <v>147820</v>
+        <v>134276</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M36" s="7">
         <v>520</v>
       </c>
       <c r="N36" s="7">
-        <v>282747</v>
+        <v>257301</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,46 +3573,46 @@
         <v>13</v>
       </c>
       <c r="D37" s="7">
-        <v>8720</v>
+        <v>7936</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>3099</v>
+        <v>2808</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
       </c>
       <c r="N37" s="7">
-        <v>11819</v>
+        <v>10744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3672,13 +3648,13 @@
         <v>33</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>24</v>
@@ -3708,37 +3684,37 @@
         <v>33</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H39" s="7">
         <v>2</v>
       </c>
       <c r="I39" s="7">
-        <v>1242</v>
+        <v>1112</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
       </c>
       <c r="N39" s="7">
-        <v>1242</v>
+        <v>1112</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,97 +3726,97 @@
         <v>15</v>
       </c>
       <c r="D40" s="7">
-        <v>9070</v>
+        <v>8280</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H40" s="7">
         <v>15</v>
       </c>
       <c r="I40" s="7">
-        <v>8319</v>
+        <v>7169</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
         <v>30</v>
       </c>
       <c r="N40" s="7">
-        <v>17389</v>
+        <v>15449</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="7">
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>1465</v>
+        <v>1352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>1920</v>
+        <v>1771</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,46 +3828,46 @@
         <v>24</v>
       </c>
       <c r="D42" s="7">
-        <v>15564</v>
+        <v>14262</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
       </c>
       <c r="I42" s="7">
-        <v>8911</v>
+        <v>8117</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M42" s="7">
         <v>44</v>
       </c>
       <c r="N42" s="7">
-        <v>24475</v>
+        <v>22379</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,51 +3879,51 @@
         <v>253</v>
       </c>
       <c r="D43" s="7">
-        <v>170494</v>
+        <v>155531</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" s="7">
         <v>367</v>
       </c>
       <c r="I43" s="7">
-        <v>169846</v>
+        <v>153901</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M43" s="7">
         <v>620</v>
       </c>
       <c r="N43" s="7">
-        <v>340339</v>
+        <v>309432</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3956,46 +3932,46 @@
         <v>240</v>
       </c>
       <c r="D44" s="7">
-        <v>177710</v>
+        <v>172475</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>308</v>
       </c>
       <c r="I44" s="7">
-        <v>177561</v>
+        <v>165549</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M44" s="7">
         <v>548</v>
       </c>
       <c r="N44" s="7">
-        <v>355271</v>
+        <v>338024</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,46 +3983,46 @@
         <v>11</v>
       </c>
       <c r="D45" s="7">
-        <v>7096</v>
+        <v>6784</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
       </c>
       <c r="I45" s="7">
-        <v>1900</v>
+        <v>1779</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M45" s="7">
         <v>14</v>
       </c>
       <c r="N45" s="7">
-        <v>8996</v>
+        <v>8563</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,7 +4058,7 @@
         <v>33</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -4097,7 +4073,7 @@
         <v>33</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,46 +4085,46 @@
         <v>2</v>
       </c>
       <c r="D47" s="7">
-        <v>1597</v>
+        <v>1502</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H47" s="7">
         <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>666</v>
+        <v>617</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>2263</v>
+        <v>2119</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,97 +4136,97 @@
         <v>46</v>
       </c>
       <c r="D48" s="7">
-        <v>33449</v>
+        <v>32476</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H48" s="7">
         <v>17</v>
       </c>
       <c r="I48" s="7">
-        <v>9118</v>
+        <v>8525</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M48" s="7">
         <v>63</v>
       </c>
       <c r="N48" s="7">
-        <v>42567</v>
+        <v>41001</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="7">
         <v>3</v>
       </c>
       <c r="D49" s="7">
-        <v>1696</v>
+        <v>1613</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="M49" s="7">
         <v>4</v>
       </c>
       <c r="N49" s="7">
-        <v>2018</v>
+        <v>1921</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4238,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="7">
-        <v>37408</v>
+        <v>36195</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>296</v>
@@ -4277,7 +4253,7 @@
         <v>43</v>
       </c>
       <c r="I50" s="7">
-        <v>25803</v>
+        <v>24093</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>299</v>
@@ -4292,16 +4268,16 @@
         <v>98</v>
       </c>
       <c r="N50" s="7">
-        <v>63211</v>
+        <v>60288</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,51 +4289,51 @@
         <v>357</v>
       </c>
       <c r="D51" s="7">
-        <v>258955</v>
+        <v>251044</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="7">
         <v>373</v>
       </c>
       <c r="I51" s="7">
-        <v>215370</v>
+        <v>200871</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M51" s="7">
         <v>730</v>
       </c>
       <c r="N51" s="7">
-        <v>474325</v>
+        <v>451915</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>10</v>
@@ -4366,46 +4342,46 @@
         <v>391</v>
       </c>
       <c r="D52" s="7">
-        <v>400297</v>
+        <v>397760</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H52" s="7">
         <v>620</v>
       </c>
       <c r="I52" s="7">
-        <v>539858</v>
+        <v>606042</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M52" s="7">
         <v>1011</v>
       </c>
       <c r="N52" s="7">
-        <v>940156</v>
+        <v>1003802</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,46 +4393,46 @@
         <v>61</v>
       </c>
       <c r="D53" s="7">
-        <v>57789</v>
+        <v>55649</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H53" s="7">
         <v>39</v>
       </c>
       <c r="I53" s="7">
-        <v>27373</v>
+        <v>25367</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M53" s="7">
         <v>100</v>
       </c>
       <c r="N53" s="7">
-        <v>85161</v>
+        <v>81016</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,46 +4444,46 @@
         <v>7</v>
       </c>
       <c r="D54" s="7">
-        <v>7155</v>
+        <v>6773</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H54" s="7">
         <v>6</v>
       </c>
       <c r="I54" s="7">
-        <v>4037</v>
+        <v>3672</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M54" s="7">
         <v>13</v>
       </c>
       <c r="N54" s="7">
-        <v>11193</v>
+        <v>10445</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,46 +4495,46 @@
         <v>14</v>
       </c>
       <c r="D55" s="7">
-        <v>11544</v>
+        <v>10797</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H55" s="7">
         <v>13</v>
       </c>
       <c r="I55" s="7">
-        <v>8878</v>
+        <v>7525</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>327</v>
+        <v>56</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M55" s="7">
         <v>27</v>
       </c>
       <c r="N55" s="7">
-        <v>20421</v>
+        <v>18322</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>54</v>
+        <v>331</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,97 +4546,97 @@
         <v>21</v>
       </c>
       <c r="D56" s="7">
-        <v>19786</v>
+        <v>18928</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>331</v>
+        <v>111</v>
       </c>
       <c r="H56" s="7">
         <v>25</v>
       </c>
       <c r="I56" s="7">
-        <v>16371</v>
+        <v>15456</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="M56" s="7">
         <v>46</v>
       </c>
       <c r="N56" s="7">
-        <v>36156</v>
+        <v>34384</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>335</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>85</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="7">
         <v>12</v>
       </c>
       <c r="D57" s="7">
-        <v>10507</v>
+        <v>10150</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>337</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="H57" s="7">
         <v>11</v>
       </c>
       <c r="I57" s="7">
-        <v>7076</v>
+        <v>6627</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
       </c>
       <c r="N57" s="7">
-        <v>17583</v>
+        <v>16777</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>341</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,46 +4648,46 @@
         <v>62</v>
       </c>
       <c r="D58" s="7">
-        <v>57133</v>
+        <v>55143</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="H58" s="7">
         <v>95</v>
       </c>
       <c r="I58" s="7">
-        <v>58618</v>
+        <v>54892</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M58" s="7">
         <v>157</v>
       </c>
       <c r="N58" s="7">
-        <v>115751</v>
+        <v>110035</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>349</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,51 +4699,51 @@
         <v>568</v>
       </c>
       <c r="D59" s="7">
-        <v>564210</v>
+        <v>555200</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H59" s="7">
         <v>809</v>
       </c>
       <c r="I59" s="7">
-        <v>662210</v>
+        <v>719581</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" s="7">
         <v>1377</v>
       </c>
       <c r="N59" s="7">
-        <v>1226421</v>
+        <v>1274781</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>10</v>
@@ -4776,46 +4752,46 @@
         <v>421</v>
       </c>
       <c r="D60" s="7">
-        <v>429691</v>
+        <v>364919</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H60" s="7">
         <v>493</v>
       </c>
       <c r="I60" s="7">
-        <v>396137</v>
+        <v>330501</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M60" s="7">
         <v>914</v>
       </c>
       <c r="N60" s="7">
-        <v>825828</v>
+        <v>695421</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,46 +4803,46 @@
         <v>128</v>
       </c>
       <c r="D61" s="7">
-        <v>128204</v>
+        <v>109255</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H61" s="7">
         <v>74</v>
       </c>
       <c r="I61" s="7">
-        <v>57424</v>
+        <v>48120</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M61" s="7">
         <v>202</v>
       </c>
       <c r="N61" s="7">
-        <v>185628</v>
+        <v>157375</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,46 +4854,46 @@
         <v>3</v>
       </c>
       <c r="D62" s="7">
-        <v>3732</v>
+        <v>3163</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
       </c>
       <c r="I62" s="7">
-        <v>1427</v>
+        <v>1225</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="M62" s="7">
         <v>5</v>
       </c>
       <c r="N62" s="7">
-        <v>5158</v>
+        <v>4388</v>
       </c>
       <c r="O62" s="7" t="s">
         <v>370</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>192</v>
+        <v>371</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>161</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4929,46 +4905,46 @@
         <v>8</v>
       </c>
       <c r="D63" s="7">
-        <v>58039</v>
+        <v>250100</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H63" s="7">
         <v>7</v>
       </c>
       <c r="I63" s="7">
-        <v>5766</v>
+        <v>4822</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>375</v>
+        <v>34</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="M63" s="7">
         <v>15</v>
       </c>
       <c r="N63" s="7">
-        <v>63804</v>
+        <v>254922</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,97 +4956,97 @@
         <v>27</v>
       </c>
       <c r="D64" s="7">
-        <v>28477</v>
+        <v>24010</v>
       </c>
       <c r="E64" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H64" s="7">
         <v>18</v>
       </c>
       <c r="I64" s="7">
-        <v>15883</v>
+        <v>13046</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M64" s="7">
         <v>45</v>
       </c>
       <c r="N64" s="7">
-        <v>44360</v>
+        <v>37056</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" s="7">
         <v>14</v>
       </c>
       <c r="D65" s="7">
-        <v>14966</v>
+        <v>12688</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H65" s="7">
         <v>2</v>
       </c>
       <c r="I65" s="7">
-        <v>1458</v>
+        <v>1229</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="M65" s="7">
         <v>16</v>
       </c>
       <c r="N65" s="7">
-        <v>16424</v>
+        <v>13917</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,46 +5058,46 @@
         <v>121</v>
       </c>
       <c r="D66" s="7">
-        <v>123861</v>
+        <v>105152</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H66" s="7">
         <v>126</v>
       </c>
       <c r="I66" s="7">
-        <v>98733</v>
+        <v>82540</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M66" s="7">
         <v>247</v>
       </c>
       <c r="N66" s="7">
-        <v>222595</v>
+        <v>187692</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,46 +5109,46 @@
         <v>722</v>
       </c>
       <c r="D67" s="7">
-        <v>786970</v>
+        <v>869288</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H67" s="7">
         <v>722</v>
       </c>
       <c r="I67" s="7">
-        <v>576828</v>
+        <v>481483</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M67" s="7">
         <v>1444</v>
       </c>
       <c r="N67" s="7">
-        <v>1363798</v>
+        <v>1350771</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,46 +5162,46 @@
         <v>2246</v>
       </c>
       <c r="D68" s="7">
-        <v>2158205</v>
+        <v>2087155</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H68" s="7">
         <v>3281</v>
       </c>
       <c r="I68" s="7">
-        <v>2312421</v>
+        <v>2266081</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M68" s="7">
         <v>5527</v>
       </c>
       <c r="N68" s="7">
-        <v>4470626</v>
+        <v>4353236</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,46 +5213,46 @@
         <v>279</v>
       </c>
       <c r="D69" s="7">
-        <v>266561</v>
+        <v>243015</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H69" s="7">
         <v>151</v>
       </c>
       <c r="I69" s="7">
-        <v>108695</v>
+        <v>95687</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>43</v>
+        <v>407</v>
       </c>
       <c r="M69" s="7">
         <v>430</v>
       </c>
       <c r="N69" s="7">
-        <v>375255</v>
+        <v>338702</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,46 +5264,46 @@
         <v>18</v>
       </c>
       <c r="D70" s="7">
-        <v>16952</v>
+        <v>15827</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>415</v>
+        <v>200</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>38</v>
+        <v>411</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="H70" s="7">
         <v>11</v>
       </c>
       <c r="I70" s="7">
-        <v>6550</v>
+        <v>5921</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="M70" s="7">
         <v>29</v>
       </c>
       <c r="N70" s="7">
-        <v>23501</v>
+        <v>21749</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>416</v>
+        <v>52</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>417</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,46 +5315,46 @@
         <v>34</v>
       </c>
       <c r="D71" s="7">
-        <v>83116</v>
+        <v>273758</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>419</v>
+        <v>273</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H71" s="7">
         <v>28</v>
       </c>
       <c r="I71" s="7">
-        <v>20017</v>
+        <v>17259</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>421</v>
+        <v>94</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>94</v>
+        <v>329</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M71" s="7">
         <v>62</v>
       </c>
       <c r="N71" s="7">
-        <v>103133</v>
+        <v>291017</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,97 +5366,97 @@
         <v>145</v>
       </c>
       <c r="D72" s="7">
-        <v>122600</v>
+        <v>116824</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>85</v>
+        <v>418</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H72" s="7">
         <v>105</v>
       </c>
       <c r="I72" s="7">
-        <v>82692</v>
+        <v>130947</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M72" s="7">
         <v>250</v>
       </c>
       <c r="N72" s="7">
-        <v>205292</v>
+        <v>247772</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="7">
         <v>47</v>
       </c>
       <c r="D73" s="7">
-        <v>43077</v>
+        <v>39949</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>32</v>
+        <v>425</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>47</v>
+        <v>273</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="H73" s="7">
         <v>24</v>
       </c>
       <c r="I73" s="7">
-        <v>15319</v>
+        <v>14241</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>28</v>
+        <v>277</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>434</v>
+        <v>105</v>
       </c>
       <c r="M73" s="7">
         <v>71</v>
       </c>
       <c r="N73" s="7">
-        <v>58396</v>
+        <v>54190</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>387</v>
+        <v>156</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>241</v>
+        <v>426</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,46 +5468,46 @@
         <v>441</v>
       </c>
       <c r="D74" s="7">
-        <v>394510</v>
+        <v>375339</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H74" s="7">
         <v>489</v>
       </c>
       <c r="I74" s="7">
-        <v>312668</v>
+        <v>285105</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="M74" s="7">
         <v>930</v>
       </c>
       <c r="N74" s="7">
-        <v>707178</v>
+        <v>660444</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,51 +5519,51 @@
         <v>3210</v>
       </c>
       <c r="D75" s="7">
-        <v>3085020</v>
+        <v>3151867</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H75" s="7">
         <v>4089</v>
       </c>
       <c r="I75" s="7">
-        <v>2858361</v>
+        <v>2815243</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M75" s="7">
         <v>7299</v>
       </c>
       <c r="N75" s="7">
-        <v>5943381</v>
+        <v>5967110</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
